--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.84428012923889</v>
+        <v>3.991866</v>
       </c>
       <c r="H2">
-        <v>2.84428012923889</v>
+        <v>11.975598</v>
       </c>
       <c r="I2">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="J2">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N2">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O2">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P2">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q2">
-        <v>79.51518166460984</v>
+        <v>292.171839270092</v>
       </c>
       <c r="R2">
-        <v>79.51518166460984</v>
+        <v>2629.546553430828</v>
       </c>
       <c r="S2">
-        <v>0.05334192611559463</v>
+        <v>0.1190363190470542</v>
       </c>
       <c r="T2">
-        <v>0.05334192611559463</v>
+        <v>0.1190363190470543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.84428012923889</v>
+        <v>3.991866</v>
       </c>
       <c r="H3">
-        <v>2.84428012923889</v>
+        <v>11.975598</v>
       </c>
       <c r="I3">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="J3">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N3">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O3">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P3">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q3">
-        <v>20.38483044791161</v>
+        <v>28.838268554806</v>
       </c>
       <c r="R3">
-        <v>20.38483044791161</v>
+        <v>259.544416993254</v>
       </c>
       <c r="S3">
-        <v>0.01367494982552978</v>
+        <v>0.01174925463395238</v>
       </c>
       <c r="T3">
-        <v>0.01367494982552978</v>
+        <v>0.01174925463395238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.84428012923889</v>
+        <v>3.991866</v>
       </c>
       <c r="H4">
-        <v>2.84428012923889</v>
+        <v>11.975598</v>
       </c>
       <c r="I4">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="J4">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N4">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O4">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P4">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q4">
-        <v>212.0875634281591</v>
+        <v>323.702399228024</v>
       </c>
       <c r="R4">
-        <v>212.0875634281591</v>
+        <v>2913.321593052216</v>
       </c>
       <c r="S4">
-        <v>0.1422767187546595</v>
+        <v>0.1318824639878574</v>
       </c>
       <c r="T4">
-        <v>0.1422767187546595</v>
+        <v>0.1318824639878575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.84428012923889</v>
+        <v>3.991866</v>
       </c>
       <c r="H5">
-        <v>2.84428012923889</v>
+        <v>11.975598</v>
       </c>
       <c r="I5">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="J5">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N5">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O5">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P5">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q5">
-        <v>7.315064304118819</v>
+        <v>11.156415202542</v>
       </c>
       <c r="R5">
-        <v>7.315064304118819</v>
+        <v>100.407736822878</v>
       </c>
       <c r="S5">
-        <v>0.004907234209524512</v>
+        <v>0.004545334015724689</v>
       </c>
       <c r="T5">
-        <v>0.004907234209524512</v>
+        <v>0.00454533401572469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.03931777387998</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H6">
-        <v>3.03931777387998</v>
+        <v>9.14021</v>
       </c>
       <c r="I6">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="J6">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N6">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O6">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P6">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q6">
-        <v>84.96768740961319</v>
+        <v>222.9961265412289</v>
       </c>
       <c r="R6">
-        <v>84.96768740961319</v>
+        <v>2006.96513887106</v>
       </c>
       <c r="S6">
-        <v>0.05699968243968377</v>
+        <v>0.0908528287035917</v>
       </c>
       <c r="T6">
-        <v>0.05699968243968377</v>
+        <v>0.09085282870359171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.03931777387998</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H7">
-        <v>3.03931777387998</v>
+        <v>9.14021</v>
       </c>
       <c r="I7">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="J7">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N7">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O7">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P7">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q7">
-        <v>21.78265665922525</v>
+        <v>22.01041072248111</v>
       </c>
       <c r="R7">
-        <v>21.78265665922525</v>
+        <v>198.09369650233</v>
       </c>
       <c r="S7">
-        <v>0.01461266688691857</v>
+        <v>0.008967456547706249</v>
       </c>
       <c r="T7">
-        <v>0.01461266688691857</v>
+        <v>0.008967456547706252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.03931777387998</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H8">
-        <v>3.03931777387998</v>
+        <v>9.14021</v>
       </c>
       <c r="I8">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="J8">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N8">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O8">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P8">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q8">
-        <v>226.6308070431137</v>
+        <v>247.0613915437022</v>
       </c>
       <c r="R8">
-        <v>226.6308070431137</v>
+        <v>2223.55252389332</v>
       </c>
       <c r="S8">
-        <v>0.1520329012867215</v>
+        <v>0.1006574716491364</v>
       </c>
       <c r="T8">
-        <v>0.1520329012867215</v>
+        <v>0.1006574716491364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.03931777387998</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H9">
-        <v>3.03931777387998</v>
+        <v>9.14021</v>
       </c>
       <c r="I9">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="J9">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N9">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O9">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P9">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q9">
-        <v>7.816672038746289</v>
+        <v>8.514980028423333</v>
       </c>
       <c r="R9">
-        <v>7.816672038746289</v>
+        <v>76.63482025581</v>
       </c>
       <c r="S9">
-        <v>0.005243732500283219</v>
+        <v>0.003469163495957943</v>
       </c>
       <c r="T9">
-        <v>0.005243732500283219</v>
+        <v>0.003469163495957944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.96236510756302</v>
+        <v>3.337145333333333</v>
       </c>
       <c r="H10">
-        <v>2.96236510756302</v>
+        <v>10.011436</v>
       </c>
       <c r="I10">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="J10">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N10">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O10">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P10">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q10">
-        <v>82.81638551115827</v>
+        <v>244.2516582349218</v>
       </c>
       <c r="R10">
-        <v>82.81638551115827</v>
+        <v>2198.264924114296</v>
       </c>
       <c r="S10">
-        <v>0.05555650411175455</v>
+        <v>0.09951273329441788</v>
       </c>
       <c r="T10">
-        <v>0.05555650411175455</v>
+        <v>0.0995127332944179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.96236510756302</v>
+        <v>3.337145333333333</v>
       </c>
       <c r="H11">
-        <v>2.96236510756302</v>
+        <v>10.011436</v>
       </c>
       <c r="I11">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="J11">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N11">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O11">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P11">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q11">
-        <v>21.23114028808437</v>
+        <v>24.10839775911422</v>
       </c>
       <c r="R11">
-        <v>21.23114028808437</v>
+        <v>216.975579832028</v>
       </c>
       <c r="S11">
-        <v>0.01424268791051347</v>
+        <v>0.009822216044285861</v>
       </c>
       <c r="T11">
-        <v>0.01424268791051347</v>
+        <v>0.009822216044285863</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.96236510756302</v>
+        <v>3.337145333333333</v>
       </c>
       <c r="H12">
-        <v>2.96236510756302</v>
+        <v>10.011436</v>
       </c>
       <c r="I12">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="J12">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N12">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O12">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P12">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q12">
-        <v>220.8927282474673</v>
+        <v>270.6107747536124</v>
       </c>
       <c r="R12">
-        <v>220.8927282474673</v>
+        <v>2435.496972782512</v>
       </c>
       <c r="S12">
-        <v>0.1481835712750784</v>
+        <v>0.1102519346204456</v>
       </c>
       <c r="T12">
-        <v>0.1481835712750784</v>
+        <v>0.1102519346204456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.96236510756302</v>
+        <v>3.337145333333333</v>
       </c>
       <c r="H13">
-        <v>2.96236510756302</v>
+        <v>10.011436</v>
       </c>
       <c r="I13">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="J13">
-        <v>0.2230937294245911</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N13">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O13">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P13">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q13">
-        <v>7.618761257492618</v>
+        <v>9.326610394710666</v>
       </c>
       <c r="R13">
-        <v>7.618761257492618</v>
+        <v>83.939493552396</v>
       </c>
       <c r="S13">
-        <v>0.005110966127244654</v>
+        <v>0.003799837018331002</v>
       </c>
       <c r="T13">
-        <v>0.005110966127244654</v>
+        <v>0.003799837018331003</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.43260432154939</v>
+        <v>4.563122666666667</v>
       </c>
       <c r="H14">
-        <v>4.43260432154939</v>
+        <v>13.689368</v>
       </c>
       <c r="I14">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="J14">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N14">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O14">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P14">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q14">
-        <v>123.9186443881145</v>
+        <v>333.9831402995609</v>
       </c>
       <c r="R14">
-        <v>123.9186443881145</v>
+        <v>3005.848262696048</v>
       </c>
       <c r="S14">
-        <v>0.0831295236320565</v>
+        <v>0.1360710318432979</v>
       </c>
       <c r="T14">
-        <v>0.0831295236320565</v>
+        <v>0.1360710318432979</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.43260432154939</v>
+        <v>4.563122666666667</v>
       </c>
       <c r="H15">
-        <v>4.43260432154939</v>
+        <v>13.689368</v>
       </c>
       <c r="I15">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="J15">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N15">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O15">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P15">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q15">
-        <v>31.76827999766808</v>
+        <v>32.96517390860711</v>
       </c>
       <c r="R15">
-        <v>31.76827999766808</v>
+        <v>296.686565177464</v>
       </c>
       <c r="S15">
-        <v>0.02131141763094717</v>
+        <v>0.01343063372784218</v>
       </c>
       <c r="T15">
-        <v>0.02131141763094717</v>
+        <v>0.01343063372784219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.43260432154939</v>
+        <v>4.563122666666667</v>
       </c>
       <c r="H16">
-        <v>4.43260432154939</v>
+        <v>13.689368</v>
       </c>
       <c r="I16">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="J16">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N16">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O16">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P16">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q16">
-        <v>330.5230875589257</v>
+        <v>370.0258864330062</v>
       </c>
       <c r="R16">
-        <v>330.5230875589257</v>
+        <v>3330.232977897056</v>
       </c>
       <c r="S16">
-        <v>0.2217279486379319</v>
+        <v>0.1507555265529561</v>
       </c>
       <c r="T16">
-        <v>0.2217279486379319</v>
+        <v>0.1507555265529561</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.43260432154939</v>
+        <v>4.563122666666667</v>
       </c>
       <c r="H17">
-        <v>4.43260432154939</v>
+        <v>13.689368</v>
       </c>
       <c r="I17">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="J17">
-        <v>0.3338164585564934</v>
+        <v>0.3054529869415386</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N17">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O17">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P17">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q17">
-        <v>11.39999724834607</v>
+        <v>12.75295590820533</v>
       </c>
       <c r="R17">
-        <v>11.39999724834607</v>
+        <v>114.776603173848</v>
       </c>
       <c r="S17">
-        <v>0.007647568655557847</v>
+        <v>0.005195794817442356</v>
       </c>
       <c r="T17">
-        <v>0.007647568655557847</v>
+        <v>0.005195794817442357</v>
       </c>
     </row>
   </sheetData>
